--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,7 +94,7 @@
     <t>Ephb2</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.967190844127466</v>
+        <v>0.08736233333333333</v>
       </c>
       <c r="H2">
-        <v>0.967190844127466</v>
+        <v>0.262087</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05767651158852535</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07409173752753136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.54901875760126</v>
+        <v>0.017772</v>
       </c>
       <c r="N2">
-        <v>5.54901875760126</v>
+        <v>0.053316</v>
       </c>
       <c r="O2">
-        <v>0.9139636048412911</v>
+        <v>0.002629212535656932</v>
       </c>
       <c r="P2">
-        <v>0.9139636048412911</v>
+        <v>0.002699072137000843</v>
       </c>
       <c r="Q2">
-        <v>5.366960136243506</v>
+        <v>0.001552603388</v>
       </c>
       <c r="R2">
-        <v>5.366960136243506</v>
+        <v>0.013973430492</v>
       </c>
       <c r="S2">
-        <v>0.9139636048412911</v>
+        <v>0.0001516438072815131</v>
       </c>
       <c r="T2">
-        <v>0.9139636048412911</v>
+        <v>0.0001999789443425396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.262087</v>
+      </c>
+      <c r="I3">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J3">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N3">
+        <v>18.522097</v>
+      </c>
+      <c r="O3">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P3">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q3">
+        <v>0.5393778707154445</v>
+      </c>
+      <c r="R3">
+        <v>4.854400836439001</v>
+      </c>
+      <c r="S3">
+        <v>0.05268139597714557</v>
+      </c>
+      <c r="T3">
+        <v>0.06947313011235128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.262087</v>
+      </c>
+      <c r="I4">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J4">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.10688</v>
+      </c>
+      <c r="O4">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P4">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q4">
+        <v>0.003112428728888889</v>
+      </c>
+      <c r="R4">
+        <v>0.02801185856</v>
+      </c>
+      <c r="S4">
+        <v>0.0003039929875130941</v>
+      </c>
+      <c r="T4">
+        <v>0.0004008880930927046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.262087</v>
+      </c>
+      <c r="I5">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J5">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.021442</v>
+      </c>
+      <c r="O5">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P5">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q5">
+        <v>0.0006244077171111111</v>
+      </c>
+      <c r="R5">
+        <v>0.005619669454</v>
+      </c>
+      <c r="S5">
+        <v>6.098631772320139E-05</v>
+      </c>
+      <c r="T5">
+        <v>8.042517301734442E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.967190844127466</v>
-      </c>
-      <c r="H3">
-        <v>0.967190844127466</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.522359498828154</v>
-      </c>
-      <c r="N3">
-        <v>0.522359498828154</v>
-      </c>
-      <c r="O3">
-        <v>0.08603639515870888</v>
-      </c>
-      <c r="P3">
-        <v>0.08603639515870888</v>
-      </c>
-      <c r="Q3">
-        <v>0.5052213246096023</v>
-      </c>
-      <c r="R3">
-        <v>0.5052213246096023</v>
-      </c>
-      <c r="S3">
-        <v>0.08603639515870888</v>
-      </c>
-      <c r="T3">
-        <v>0.08603639515870888</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.262087</v>
+      </c>
+      <c r="I6">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J6">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.52486</v>
+      </c>
+      <c r="N6">
+        <v>1.04972</v>
+      </c>
+      <c r="O6">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P6">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q6">
+        <v>0.04585299427333334</v>
+      </c>
+      <c r="R6">
+        <v>0.27511796564</v>
+      </c>
+      <c r="S6">
+        <v>0.004478492498861973</v>
+      </c>
+      <c r="T6">
+        <v>0.003937315204727487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.052732</v>
+      </c>
+      <c r="I7">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J7">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.017772</v>
+      </c>
+      <c r="N7">
+        <v>0.053316</v>
+      </c>
+      <c r="O7">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P7">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q7">
+        <v>0.006236384368</v>
+      </c>
+      <c r="R7">
+        <v>0.056127459312</v>
+      </c>
+      <c r="S7">
+        <v>0.0006091118160270517</v>
+      </c>
+      <c r="T7">
+        <v>0.000803260879156961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.052732</v>
+      </c>
+      <c r="I8">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J8">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N8">
+        <v>18.522097</v>
+      </c>
+      <c r="O8">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P8">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q8">
+        <v>2.166533802111556</v>
+      </c>
+      <c r="R8">
+        <v>19.498804219004</v>
+      </c>
+      <c r="S8">
+        <v>0.2116067998405583</v>
+      </c>
+      <c r="T8">
+        <v>0.2790546162512287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.052732</v>
+      </c>
+      <c r="I9">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J9">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.10688</v>
+      </c>
+      <c r="O9">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P9">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q9">
+        <v>0.01250177735111111</v>
+      </c>
+      <c r="R9">
+        <v>0.11251599616</v>
+      </c>
+      <c r="S9">
+        <v>0.001221056922818127</v>
+      </c>
+      <c r="T9">
+        <v>0.001610258135724661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.052732</v>
+      </c>
+      <c r="I10">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J10">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.021442</v>
+      </c>
+      <c r="O10">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P10">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q10">
+        <v>0.002508075504888889</v>
+      </c>
+      <c r="R10">
+        <v>0.022572679544</v>
+      </c>
+      <c r="S10">
+        <v>0.0002449654054927609</v>
+      </c>
+      <c r="T10">
+        <v>0.0003230459856494027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.052732</v>
+      </c>
+      <c r="I11">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J11">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.52486</v>
+      </c>
+      <c r="N11">
+        <v>1.04972</v>
+      </c>
+      <c r="O11">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P11">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q11">
+        <v>0.1841789725066666</v>
+      </c>
+      <c r="R11">
+        <v>1.10507383504</v>
+      </c>
+      <c r="S11">
+        <v>0.01798888294845591</v>
+      </c>
+      <c r="T11">
+        <v>0.01581512135322689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.209003</v>
+      </c>
+      <c r="I12">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J12">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.017772</v>
+      </c>
+      <c r="N12">
+        <v>0.053316</v>
+      </c>
+      <c r="O12">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P12">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q12">
+        <v>0.001238133772</v>
+      </c>
+      <c r="R12">
+        <v>0.011143203948</v>
+      </c>
+      <c r="S12">
+        <v>0.0001209293503808205</v>
+      </c>
+      <c r="T12">
+        <v>0.0001594745229806278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.209003</v>
+      </c>
+      <c r="I13">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J13">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N13">
+        <v>18.522097</v>
+      </c>
+      <c r="O13">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P13">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q13">
+        <v>0.4301304265878889</v>
+      </c>
+      <c r="R13">
+        <v>3.871173839291</v>
+      </c>
+      <c r="S13">
+        <v>0.04201112532636627</v>
+      </c>
+      <c r="T13">
+        <v>0.05540180403023329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.209003</v>
+      </c>
+      <c r="I14">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J14">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.10688</v>
+      </c>
+      <c r="O14">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P14">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q14">
+        <v>0.002482026737777778</v>
+      </c>
+      <c r="R14">
+        <v>0.02233824064</v>
+      </c>
+      <c r="S14">
+        <v>0.0002424212050548071</v>
+      </c>
+      <c r="T14">
+        <v>0.0003196908435773408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.209003</v>
+      </c>
+      <c r="I15">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J15">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.021442</v>
+      </c>
+      <c r="O15">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P15">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q15">
+        <v>0.0004979380362222222</v>
+      </c>
+      <c r="R15">
+        <v>0.004481442326</v>
+      </c>
+      <c r="S15">
+        <v>4.863393973414271E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.413558259716823E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.209003</v>
+      </c>
+      <c r="I16">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J16">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.52486</v>
+      </c>
+      <c r="N16">
+        <v>1.04972</v>
+      </c>
+      <c r="O16">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P16">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q16">
+        <v>0.03656577152666667</v>
+      </c>
+      <c r="R16">
+        <v>0.21939462916</v>
+      </c>
+      <c r="S16">
+        <v>0.00357140326586076</v>
+      </c>
+      <c r="T16">
+        <v>0.003139837877245567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0067545</v>
+      </c>
+      <c r="H17">
+        <v>2.013509</v>
+      </c>
+      <c r="I17">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J17">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.017772</v>
+      </c>
+      <c r="N17">
+        <v>0.053316</v>
+      </c>
+      <c r="O17">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P17">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q17">
+        <v>0.017892040974</v>
+      </c>
+      <c r="R17">
+        <v>0.107352245844</v>
+      </c>
+      <c r="S17">
+        <v>0.001747527561967547</v>
+      </c>
+      <c r="T17">
+        <v>0.001536357790520715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.0067545</v>
+      </c>
+      <c r="H18">
+        <v>2.013509</v>
+      </c>
+      <c r="I18">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J18">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N18">
+        <v>18.522097</v>
+      </c>
+      <c r="O18">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P18">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q18">
+        <v>6.215734834728834</v>
+      </c>
+      <c r="R18">
+        <v>37.294409008373</v>
+      </c>
+      <c r="S18">
+        <v>0.6070949623553232</v>
+      </c>
+      <c r="T18">
+        <v>0.5337341140132487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.0067545</v>
+      </c>
+      <c r="H19">
+        <v>2.013509</v>
+      </c>
+      <c r="I19">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J19">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.10688</v>
+      </c>
+      <c r="O19">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P19">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q19">
+        <v>0.03586730698666667</v>
+      </c>
+      <c r="R19">
+        <v>0.21520384192</v>
+      </c>
+      <c r="S19">
+        <v>0.003503183768907858</v>
+      </c>
+      <c r="T19">
+        <v>0.0030798619673429</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.0067545</v>
+      </c>
+      <c r="H20">
+        <v>2.013509</v>
+      </c>
+      <c r="I20">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J20">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.021442</v>
+      </c>
+      <c r="O20">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P20">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q20">
+        <v>0.007195609996333333</v>
+      </c>
+      <c r="R20">
+        <v>0.043173659978</v>
+      </c>
+      <c r="S20">
+        <v>0.0007028000222017431</v>
+      </c>
+      <c r="T20">
+        <v>0.0006178742543391321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.0067545</v>
+      </c>
+      <c r="H21">
+        <v>2.013509</v>
+      </c>
+      <c r="I21">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J21">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.52486</v>
+      </c>
+      <c r="N21">
+        <v>1.04972</v>
+      </c>
+      <c r="O21">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P21">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q21">
+        <v>0.5284051668699999</v>
+      </c>
+      <c r="R21">
+        <v>2.11362066748</v>
+      </c>
+      <c r="S21">
+        <v>0.05160968468232537</v>
+      </c>
+      <c r="T21">
+        <v>0.0302488089853966</v>
       </c>
     </row>
   </sheetData>
